--- a/delta2/lib_e/osi_unsorted/htool.xlsx
+++ b/delta2/lib_e/osi_unsorted/htool.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_e/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_e/osi_unsorted/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC258AB-E19E-F64A-9557-52BB90D6E574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93132DE2-94D0-5E48-994F-DE3F74CF2454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{2B361B8B-B20C-1B4A-9CA2-9DEA1E5C6017}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>eid</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>description</t>
-  </si>
-  <si>
-    <t>map_did</t>
   </si>
   <si>
     <t>evidence</t>
@@ -134,10 +131,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -170,12 +164,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}" name="Table1" displayName="Table1" ref="A1:G5" totalsRowShown="0" dataDxfId="6">
-  <autoFilter ref="A1:G5" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}"/>
-  <tableColumns count="7">
-    <tableColumn id="7" xr3:uid="{5516EDED-B058-144E-976C-0B23FABA65AE}" name="eid" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{0B947D48-DA4A-7C49-9C7F-01EFE6AFBBF9}" name="map_pid" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{F8B6E0DD-D4FA-1C43-B56F-C68835F236FD}" name="map_did" dataDxfId="3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}" name="Table1" displayName="Table1" ref="A1:F5" totalsRowShown="0" dataDxfId="5">
+  <autoFilter ref="A1:F5" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}"/>
+  <tableColumns count="6">
+    <tableColumn id="7" xr3:uid="{5516EDED-B058-144E-976C-0B23FABA65AE}" name="eid" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{0B947D48-DA4A-7C49-9C7F-01EFE6AFBBF9}" name="map_pid" dataDxfId="3"/>
     <tableColumn id="1" xr3:uid="{1ED6D649-59BA-E14C-BBA6-23BD7EBDEB94}" name="eid_type" dataDxfId="2"/>
     <tableColumn id="6" xr3:uid="{16A9BF58-E113-7848-AEB0-6F8A9E864CF3}" name="evidence" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{794120D3-18F6-5949-81E6-52D88B752F29}" name="description" dataDxfId="0"/>
@@ -502,23 +495,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CADA5849-2682-F643-8842-EFF560F6FB5C}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.1640625" customWidth="1"/>
-    <col min="2" max="3" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="132.83203125" customWidth="1"/>
-    <col min="6" max="6" width="61" customWidth="1"/>
-    <col min="7" max="7" width="147.1640625" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="132.83203125" customWidth="1"/>
+    <col min="5" max="5" width="61" customWidth="1"/>
+    <col min="6" max="6" width="147.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -526,79 +519,72 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
       <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="E2" s="1"/>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" t="s">
-        <v>7</v>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" t="s">
-        <v>7</v>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" t="s">
-        <v>7</v>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
